--- a/Code/Results/Cases/Case_6_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_15/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9818423528737478</v>
+        <v>0.9818423528737477</v>
       </c>
       <c r="D2">
         <v>1.002634798735584</v>
@@ -436,13 +436,13 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0349119938543</v>
+        <v>1.034911993854299</v>
       </c>
       <c r="J2">
         <v>1.00458005960998</v>
       </c>
       <c r="K2">
-        <v>1.014057548269788</v>
+        <v>1.014057548269787</v>
       </c>
       <c r="L2">
         <v>1.001623210453606</v>
@@ -462,16 +462,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9903543119095849</v>
+        <v>0.9903543119095845</v>
       </c>
       <c r="D3">
         <v>1.009084801065144</v>
       </c>
       <c r="E3">
-        <v>0.9971546352854425</v>
+        <v>0.997154635285442</v>
       </c>
       <c r="F3">
-        <v>0.9991688109566026</v>
+        <v>0.9991688109566024</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,16 +480,16 @@
         <v>1.037451054362247</v>
       </c>
       <c r="J3">
-        <v>1.011111427143979</v>
+        <v>1.011111427143978</v>
       </c>
       <c r="K3">
-        <v>1.01960274499531</v>
+        <v>1.019602744995309</v>
       </c>
       <c r="L3">
-        <v>1.007824053013672</v>
+        <v>1.007824053013671</v>
       </c>
       <c r="M3">
-        <v>1.009812338060873</v>
+        <v>1.009812338060872</v>
       </c>
       <c r="N3">
         <v>1.012547321346624</v>
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9956727879934052</v>
+        <v>0.9956727879934081</v>
       </c>
       <c r="D4">
-        <v>1.013117195721875</v>
+        <v>1.013117195721877</v>
       </c>
       <c r="E4">
-        <v>1.001617123749363</v>
+        <v>1.001617123749365</v>
       </c>
       <c r="F4">
-        <v>1.004547451613994</v>
+        <v>1.004547451613997</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039023531224087</v>
+        <v>1.039023531224089</v>
       </c>
       <c r="J4">
-        <v>1.015187835762059</v>
+        <v>1.015187835762062</v>
       </c>
       <c r="K4">
-        <v>1.023059844137662</v>
+        <v>1.023059844137664</v>
       </c>
       <c r="L4">
-        <v>1.011696070617234</v>
+        <v>1.011696070617236</v>
       </c>
       <c r="M4">
-        <v>1.014591300999772</v>
+        <v>1.014591300999775</v>
       </c>
       <c r="N4">
-        <v>1.016629518932513</v>
+        <v>1.016629518932516</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9978662826970178</v>
+        <v>0.9978662826970199</v>
       </c>
       <c r="D5">
-        <v>1.014780664724189</v>
+        <v>1.014780664724191</v>
       </c>
       <c r="E5">
-        <v>1.003459025857883</v>
+        <v>1.003459025857885</v>
       </c>
       <c r="F5">
-        <v>1.006766926457942</v>
+        <v>1.006766926457944</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039668629709155</v>
+        <v>1.039668629709156</v>
       </c>
       <c r="J5">
-        <v>1.016867889974384</v>
+        <v>1.016867889974386</v>
       </c>
       <c r="K5">
-        <v>1.024483702761887</v>
+        <v>1.024483702761889</v>
       </c>
       <c r="L5">
-        <v>1.013292324877392</v>
+        <v>1.013292324877394</v>
       </c>
       <c r="M5">
-        <v>1.01656179216601</v>
+        <v>1.016561792166012</v>
       </c>
       <c r="N5">
-        <v>1.018311959014524</v>
+        <v>1.018311959014527</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,10 +585,10 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.99823217405813</v>
+        <v>0.9982321740581291</v>
       </c>
       <c r="D6">
-        <v>1.01505816260052</v>
+        <v>1.015058162600519</v>
       </c>
       <c r="E6">
         <v>1.003766350245385</v>
@@ -600,22 +600,22 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039776032545381</v>
+        <v>1.03977603254538</v>
       </c>
       <c r="J6">
-        <v>1.017148064110001</v>
+        <v>1.01714806411</v>
       </c>
       <c r="K6">
         <v>1.024721095327289</v>
       </c>
       <c r="L6">
-        <v>1.013558549401764</v>
+        <v>1.013558549401763</v>
       </c>
       <c r="M6">
-        <v>1.016890454475252</v>
+        <v>1.016890454475251</v>
       </c>
       <c r="N6">
-        <v>1.018592531029551</v>
+        <v>1.01859253102955</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9957022604906383</v>
+        <v>0.9957022604906395</v>
       </c>
       <c r="D7">
-        <v>1.013139545267574</v>
+        <v>1.013139545267575</v>
       </c>
       <c r="E7">
-        <v>1.001641866584807</v>
+        <v>1.001641866584808</v>
       </c>
       <c r="F7">
-        <v>1.004577268613293</v>
+        <v>1.004577268613294</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039032212692873</v>
+        <v>1.039032212692874</v>
       </c>
       <c r="J7">
-        <v>1.015210414273416</v>
+        <v>1.015210414273417</v>
       </c>
       <c r="K7">
         <v>1.023078983421583</v>
       </c>
       <c r="L7">
-        <v>1.01171752121455</v>
+        <v>1.011717521214551</v>
       </c>
       <c r="M7">
-        <v>1.014617779166323</v>
+        <v>1.014617779166324</v>
       </c>
       <c r="N7">
-        <v>1.016652129507946</v>
+        <v>1.016652129507947</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,28 +667,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9847600742757089</v>
+        <v>0.9847600742757087</v>
       </c>
       <c r="D8">
         <v>1.004845142053863</v>
       </c>
       <c r="E8">
-        <v>0.9924661796260283</v>
+        <v>0.992466179626028</v>
       </c>
       <c r="F8">
-        <v>0.9935154782779015</v>
+        <v>0.9935154782779014</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035785241675608</v>
+        <v>1.035785241675607</v>
       </c>
       <c r="J8">
         <v>1.006819783823221</v>
       </c>
       <c r="K8">
-        <v>1.015959880369554</v>
+        <v>1.015959880369553</v>
       </c>
       <c r="L8">
         <v>1.003749177728186</v>
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.963878709988809</v>
+        <v>0.9638787099888085</v>
       </c>
       <c r="D9">
-        <v>0.9890436142496953</v>
+        <v>0.9890436142496948</v>
       </c>
       <c r="E9">
-        <v>0.97501646062919</v>
+        <v>0.9750164606291898</v>
       </c>
       <c r="F9">
-        <v>0.9724490409217829</v>
+        <v>0.9724490409217823</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,19 +726,19 @@
         <v>1.029478212890628</v>
       </c>
       <c r="J9">
-        <v>0.9907748120110068</v>
+        <v>0.9907748120110063</v>
       </c>
       <c r="K9">
-        <v>1.00231698808623</v>
+        <v>1.002316988086229</v>
       </c>
       <c r="L9">
-        <v>0.98852831544312</v>
+        <v>0.9885283154431197</v>
       </c>
       <c r="M9">
-        <v>0.9860055099101018</v>
+        <v>0.9860055099101012</v>
       </c>
       <c r="N9">
-        <v>0.9921818258875217</v>
+        <v>0.9921818258875214</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9486382959146548</v>
+        <v>0.9486382959146552</v>
       </c>
       <c r="D10">
-        <v>0.9775427451166894</v>
+        <v>0.9775427451166898</v>
       </c>
       <c r="E10">
-        <v>0.9623335020495484</v>
+        <v>0.9623335020495486</v>
       </c>
       <c r="F10">
-        <v>0.9571064488508563</v>
+        <v>0.9571064488508565</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -767,19 +767,19 @@
         <v>1.024805637027435</v>
       </c>
       <c r="J10">
-        <v>0.979049084127551</v>
+        <v>0.9790490841275514</v>
       </c>
       <c r="K10">
-        <v>0.9923296661278912</v>
+        <v>0.9923296661278915</v>
       </c>
       <c r="L10">
-        <v>0.977417852155724</v>
+        <v>0.9774178521557243</v>
       </c>
       <c r="M10">
-        <v>0.9722958936250751</v>
+        <v>0.9722958936250753</v>
       </c>
       <c r="N10">
-        <v>0.9804394461255116</v>
+        <v>0.9804394461255123</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9416588967186551</v>
+        <v>0.9416588967186529</v>
       </c>
       <c r="D11">
-        <v>0.9722871194111528</v>
+        <v>0.9722871194111508</v>
       </c>
       <c r="E11">
-        <v>0.9565409404561719</v>
+        <v>0.9565409404561698</v>
       </c>
       <c r="F11">
-        <v>0.9500889795859525</v>
+        <v>0.9500889795859501</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022651031081293</v>
+        <v>1.022651031081292</v>
       </c>
       <c r="J11">
-        <v>0.9736776024939885</v>
+        <v>0.9736776024939862</v>
       </c>
       <c r="K11">
-        <v>0.9877512927588755</v>
+        <v>0.9877512927588735</v>
       </c>
       <c r="L11">
-        <v>0.9723317610706923</v>
+        <v>0.9723317610706901</v>
       </c>
       <c r="M11">
-        <v>0.9660177932141569</v>
+        <v>0.9660177932141546</v>
       </c>
       <c r="N11">
-        <v>0.9750603363719118</v>
+        <v>0.9750603363719095</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9390023809837466</v>
+        <v>0.9390023809837483</v>
       </c>
       <c r="D12">
-        <v>0.9702887617343569</v>
+        <v>0.970288761734358</v>
       </c>
       <c r="E12">
-        <v>0.9543388210847776</v>
+        <v>0.9543388210847791</v>
       </c>
       <c r="F12">
-        <v>0.9474193738946678</v>
+        <v>0.947419373894669</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021828888242585</v>
+        <v>1.021828888242586</v>
       </c>
       <c r="J12">
-        <v>0.9716330472873141</v>
+        <v>0.9716330472873158</v>
       </c>
       <c r="K12">
-        <v>0.9860082119316479</v>
+        <v>0.9860082119316491</v>
       </c>
       <c r="L12">
-        <v>0.9703964122289831</v>
+        <v>0.9703964122289845</v>
       </c>
       <c r="M12">
-        <v>0.9636283702190402</v>
+        <v>0.9636283702190418</v>
       </c>
       <c r="N12">
-        <v>0.9730128776623304</v>
+        <v>0.9730128776623321</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,7 +872,7 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9395752359737145</v>
+        <v>0.9395752359737142</v>
       </c>
       <c r="D13">
         <v>0.970719591662545</v>
@@ -881,7 +881,7 @@
         <v>0.9548135639972515</v>
       </c>
       <c r="F13">
-        <v>0.9479949868968909</v>
+        <v>0.9479949868968905</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -890,7 +890,7 @@
         <v>1.022006265875538</v>
       </c>
       <c r="J13">
-        <v>0.9720739369080108</v>
+        <v>0.9720739369080106</v>
       </c>
       <c r="K13">
         <v>0.9863841083451605</v>
@@ -899,10 +899,10 @@
         <v>0.9708137256376765</v>
       </c>
       <c r="M13">
-        <v>0.9641436194214094</v>
+        <v>0.9641436194214091</v>
       </c>
       <c r="N13">
-        <v>0.9734543933968594</v>
+        <v>0.9734543933968589</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,16 +913,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9414406594669629</v>
+        <v>0.9414406594669656</v>
       </c>
       <c r="D14">
-        <v>0.9721229071671167</v>
+        <v>0.9721229071671187</v>
       </c>
       <c r="E14">
-        <v>0.9563599768684283</v>
+        <v>0.956359976868431</v>
       </c>
       <c r="F14">
-        <v>0.9498696380674544</v>
+        <v>0.9498696380674567</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -931,19 +931,19 @@
         <v>1.022583531123904</v>
       </c>
       <c r="J14">
-        <v>0.9735096385788409</v>
+        <v>0.9735096385788435</v>
       </c>
       <c r="K14">
-        <v>0.9876081032637757</v>
+        <v>0.9876081032637776</v>
       </c>
       <c r="L14">
-        <v>0.9721727566761715</v>
+        <v>0.972172756676174</v>
       </c>
       <c r="M14">
-        <v>0.9658214940152824</v>
+        <v>0.9658214940152844</v>
       </c>
       <c r="N14">
-        <v>0.9748921339287391</v>
+        <v>0.9748921339287417</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9425812923665461</v>
+        <v>0.9425812923665452</v>
       </c>
       <c r="D15">
-        <v>0.9729812598848432</v>
+        <v>0.9729812598848422</v>
       </c>
       <c r="E15">
-        <v>0.9573059060263003</v>
+        <v>0.9573059060262994</v>
       </c>
       <c r="F15">
-        <v>0.9510160998429167</v>
+        <v>0.9510160998429152</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -972,19 +972,19 @@
         <v>1.022936242456152</v>
       </c>
       <c r="J15">
-        <v>0.9743875134900569</v>
+        <v>0.9743875134900557</v>
       </c>
       <c r="K15">
-        <v>0.9883564769448614</v>
+        <v>0.9883564769448603</v>
       </c>
       <c r="L15">
-        <v>0.973003827752196</v>
+        <v>0.9730038277521948</v>
       </c>
       <c r="M15">
-        <v>0.9668474734583364</v>
+        <v>0.9668474734583351</v>
       </c>
       <c r="N15">
-        <v>0.9757712555230228</v>
+        <v>0.9757712555230216</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,16 +995,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9490929199948928</v>
+        <v>0.9490929199948918</v>
       </c>
       <c r="D16">
-        <v>0.9778853465578974</v>
+        <v>0.9778853465578964</v>
       </c>
       <c r="E16">
-        <v>0.9627111647806097</v>
+        <v>0.9627111647806085</v>
       </c>
       <c r="F16">
-        <v>0.9575637395503466</v>
+        <v>0.957563739550346</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1013,19 +1013,19 @@
         <v>1.024945693003725</v>
       </c>
       <c r="J16">
-        <v>0.9793989537112875</v>
+        <v>0.9793989537112864</v>
       </c>
       <c r="K16">
-        <v>0.9926278165133834</v>
+        <v>0.9926278165133827</v>
       </c>
       <c r="L16">
-        <v>0.9777492094970122</v>
+        <v>0.9777492094970111</v>
       </c>
       <c r="M16">
-        <v>0.9727048518082413</v>
+        <v>0.9727048518082405</v>
       </c>
       <c r="N16">
-        <v>0.9807898125641876</v>
+        <v>0.9807898125641865</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.953071165121717</v>
+        <v>0.9530711651217165</v>
       </c>
       <c r="D17">
-        <v>0.9808846208583097</v>
+        <v>0.9808846208583093</v>
       </c>
       <c r="E17">
-        <v>0.9660177354211171</v>
+        <v>0.966017735421117</v>
       </c>
       <c r="F17">
-        <v>0.9615663064001445</v>
+        <v>0.9615663064001438</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026169631002674</v>
+        <v>1.026169631002673</v>
       </c>
       <c r="J17">
-        <v>0.9824603675864761</v>
+        <v>0.9824603675864759</v>
       </c>
       <c r="K17">
-        <v>0.9952363240267679</v>
+        <v>0.9952363240267674</v>
       </c>
       <c r="L17">
-        <v>0.9806490400076535</v>
+        <v>0.9806490400076534</v>
       </c>
       <c r="M17">
-        <v>0.9762835341051617</v>
+        <v>0.9762835341051613</v>
       </c>
       <c r="N17">
-        <v>0.9838555739982282</v>
+        <v>0.9838555739982278</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.955355450529405</v>
+        <v>0.9553554505294058</v>
       </c>
       <c r="D18">
-        <v>0.982607809091094</v>
+        <v>0.9826078090910949</v>
       </c>
       <c r="E18">
-        <v>0.9679177861199618</v>
+        <v>0.9679177861199627</v>
       </c>
       <c r="F18">
-        <v>0.9638653643651569</v>
+        <v>0.9638653643651577</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,19 +1095,19 @@
         <v>1.026871018327453</v>
       </c>
       <c r="J18">
-        <v>0.9842180462725627</v>
+        <v>0.9842180462725637</v>
       </c>
       <c r="K18">
-        <v>0.9967336630955972</v>
+        <v>0.996733663095598</v>
       </c>
       <c r="L18">
-        <v>0.982314274325674</v>
+        <v>0.9823142743256748</v>
       </c>
       <c r="M18">
-        <v>0.9783384087691845</v>
+        <v>0.9783384087691853</v>
       </c>
       <c r="N18">
-        <v>0.9856157487896577</v>
+        <v>0.9856157487896586</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,16 +1118,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9561283916619906</v>
+        <v>0.9561283916619895</v>
       </c>
       <c r="D19">
-        <v>0.9831910535135767</v>
+        <v>0.9831910535135758</v>
       </c>
       <c r="E19">
-        <v>0.9685609478951756</v>
+        <v>0.968560947895174</v>
       </c>
       <c r="F19">
-        <v>0.9646434386271009</v>
+        <v>0.9646434386270998</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1136,19 +1136,19 @@
         <v>1.027108108514805</v>
       </c>
       <c r="J19">
-        <v>0.9848127640019105</v>
+        <v>0.9848127640019092</v>
       </c>
       <c r="K19">
-        <v>0.9972402394076713</v>
+        <v>0.9972402394076703</v>
       </c>
       <c r="L19">
-        <v>0.9828777673748432</v>
+        <v>0.9828777673748419</v>
       </c>
       <c r="M19">
-        <v>0.9790337228299496</v>
+        <v>0.9790337228299485</v>
       </c>
       <c r="N19">
-        <v>0.9862113110863961</v>
+        <v>0.9862113110863948</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9526481233850578</v>
+        <v>0.9526481233850611</v>
       </c>
       <c r="D20">
-        <v>0.9805655729276568</v>
+        <v>0.9805655729276593</v>
       </c>
       <c r="E20">
-        <v>0.9656659671789123</v>
+        <v>0.9656659671789153</v>
       </c>
       <c r="F20">
-        <v>0.9611405937378165</v>
+        <v>0.9611405937378195</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026039622536814</v>
+        <v>1.026039622536815</v>
       </c>
       <c r="J20">
-        <v>0.9821348366985041</v>
+        <v>0.9821348366985072</v>
       </c>
       <c r="K20">
-        <v>0.9949589838057141</v>
+        <v>0.9949589838057166</v>
       </c>
       <c r="L20">
-        <v>0.9803406565164368</v>
+        <v>0.9803406565164394</v>
       </c>
       <c r="M20">
-        <v>0.9759029789308927</v>
+        <v>0.9759029789308956</v>
       </c>
       <c r="N20">
-        <v>0.9835295808190563</v>
+        <v>0.9835295808190593</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9408931687966039</v>
+        <v>0.9408931687966038</v>
       </c>
       <c r="D21">
-        <v>0.9717109830180251</v>
+        <v>0.9717109830180249</v>
       </c>
       <c r="E21">
-        <v>0.9559060382795314</v>
+        <v>0.9559060382795311</v>
       </c>
       <c r="F21">
-        <v>0.9493193999415003</v>
+        <v>0.9493193999414999</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,19 +1218,19 @@
         <v>1.022414162006976</v>
       </c>
       <c r="J21">
-        <v>0.97308826831045</v>
+        <v>0.9730882683104497</v>
       </c>
       <c r="K21">
-        <v>0.987248878209764</v>
+        <v>0.9872488782097638</v>
       </c>
       <c r="L21">
-        <v>0.9717738725579933</v>
+        <v>0.9717738725579932</v>
       </c>
       <c r="M21">
-        <v>0.9653290422893382</v>
+        <v>0.9653290422893379</v>
       </c>
       <c r="N21">
-        <v>0.9744701652662351</v>
+        <v>0.9744701652662352</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1244,34 +1244,34 @@
         <v>0.9331273691707566</v>
       </c>
       <c r="D22">
-        <v>0.9658735451437654</v>
+        <v>0.9658735451437653</v>
       </c>
       <c r="E22">
-        <v>0.9494740349234234</v>
+        <v>0.9494740349234232</v>
       </c>
       <c r="F22">
-        <v>0.9415181154527245</v>
+        <v>0.9415181154527246</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020007095489755</v>
+        <v>1.020007095489756</v>
       </c>
       <c r="J22">
-        <v>0.9671115732472765</v>
+        <v>0.9671115732472767</v>
       </c>
       <c r="K22">
-        <v>0.9821527844517033</v>
+        <v>0.9821527844517034</v>
       </c>
       <c r="L22">
-        <v>0.9661175708887559</v>
+        <v>0.9661175708887558</v>
       </c>
       <c r="M22">
-        <v>0.9583445022681759</v>
+        <v>0.958344502268176</v>
       </c>
       <c r="N22">
-        <v>0.9684849826105355</v>
+        <v>0.9684849826105356</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9372823617490643</v>
+        <v>0.9372823617490628</v>
       </c>
       <c r="D23">
-        <v>0.9689955100329313</v>
+        <v>0.9689955100329295</v>
       </c>
       <c r="E23">
-        <v>0.9529138035981159</v>
+        <v>0.9529138035981143</v>
       </c>
       <c r="F23">
-        <v>0.9456912866244961</v>
+        <v>0.9456912866244941</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02129601869424</v>
+        <v>1.021296018694239</v>
       </c>
       <c r="J23">
-        <v>0.9703092690153404</v>
+        <v>0.9703092690153388</v>
       </c>
       <c r="K23">
-        <v>0.9848795238376276</v>
+        <v>0.9848795238376259</v>
       </c>
       <c r="L23">
-        <v>0.9691435105544395</v>
+        <v>0.9691435105544376</v>
       </c>
       <c r="M23">
-        <v>0.9620813490299688</v>
+        <v>0.962081349029967</v>
       </c>
       <c r="N23">
-        <v>0.9716872194733708</v>
+        <v>0.9716872194733691</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,16 +1323,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.952839388964676</v>
+        <v>0.9528393889646752</v>
       </c>
       <c r="D24">
-        <v>0.9807098176861931</v>
+        <v>0.9807098176861926</v>
       </c>
       <c r="E24">
-        <v>0.9658250041469684</v>
+        <v>0.9658250041469676</v>
       </c>
       <c r="F24">
-        <v>0.9613330643916157</v>
+        <v>0.961333064391615</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1341,19 +1341,19 @@
         <v>1.026098406287507</v>
       </c>
       <c r="J24">
-        <v>0.9822820162200417</v>
+        <v>0.9822820162200409</v>
       </c>
       <c r="K24">
-        <v>0.9950843762538397</v>
+        <v>0.9950843762538391</v>
       </c>
       <c r="L24">
-        <v>0.9804800823167094</v>
+        <v>0.9804800823167087</v>
       </c>
       <c r="M24">
-        <v>0.9760750354502046</v>
+        <v>0.9760750354502041</v>
       </c>
       <c r="N24">
-        <v>0.9836769693523961</v>
+        <v>0.9836769693523956</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,16 +1364,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9694896073581735</v>
+        <v>0.9694896073581746</v>
       </c>
       <c r="D25">
-        <v>0.993285188013444</v>
+        <v>0.9932851880134451</v>
       </c>
       <c r="E25">
-        <v>0.9796972306381241</v>
+        <v>0.9796972306381252</v>
       </c>
       <c r="F25">
-        <v>0.9781043781870297</v>
+        <v>0.9781043781870308</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1382,19 +1382,19 @@
         <v>1.031185120680039</v>
       </c>
       <c r="J25">
-        <v>0.9950892772612513</v>
+        <v>0.9950892772612526</v>
       </c>
       <c r="K25">
-        <v>1.005988644884535</v>
+        <v>1.005988644884536</v>
       </c>
       <c r="L25">
-        <v>0.9926191154918785</v>
+        <v>0.9926191154918798</v>
       </c>
       <c r="M25">
-        <v>0.9910523793945727</v>
+        <v>0.9910523793945738</v>
       </c>
       <c r="N25">
-        <v>0.9965024181732977</v>
+        <v>0.9965024181732989</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9818423528737477</v>
+        <v>0.9911295060062268</v>
       </c>
       <c r="D2">
-        <v>1.002634798735584</v>
+        <v>1.013721497182454</v>
       </c>
       <c r="E2">
-        <v>0.9900231092511362</v>
+        <v>0.9986628772421072</v>
       </c>
       <c r="F2">
-        <v>0.9905685874232317</v>
+        <v>0.9992584883028736</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034911993854299</v>
+        <v>1.040226502871894</v>
       </c>
       <c r="J2">
-        <v>1.00458005960998</v>
+        <v>1.013578808223043</v>
       </c>
       <c r="K2">
-        <v>1.014057548269787</v>
+        <v>1.024992923142625</v>
       </c>
       <c r="L2">
-        <v>1.001623210453606</v>
+        <v>1.010140871793854</v>
       </c>
       <c r="M2">
-        <v>1.002160899621477</v>
+        <v>1.010728163235719</v>
       </c>
       <c r="N2">
-        <v>1.00600667852157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008128480343951</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.028742234509146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9903543119095845</v>
+        <v>0.9960652954886022</v>
       </c>
       <c r="D3">
-        <v>1.009084801065144</v>
+        <v>1.016940919512642</v>
       </c>
       <c r="E3">
-        <v>0.997154635285442</v>
+        <v>1.002635533706666</v>
       </c>
       <c r="F3">
-        <v>0.9991688109566024</v>
+        <v>1.004801725470766</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037451054362247</v>
+        <v>1.041296904109767</v>
       </c>
       <c r="J3">
-        <v>1.011111427143978</v>
+        <v>1.016663802284991</v>
       </c>
       <c r="K3">
-        <v>1.019602744995309</v>
+        <v>1.027361531377095</v>
       </c>
       <c r="L3">
-        <v>1.007824053013671</v>
+        <v>1.013234803092114</v>
       </c>
       <c r="M3">
-        <v>1.009812338060872</v>
+        <v>1.015373533797627</v>
       </c>
       <c r="N3">
-        <v>1.012547321346624</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009199447581981</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.030414394826215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9956727879934081</v>
+        <v>0.9991908101654873</v>
       </c>
       <c r="D4">
-        <v>1.013117195721877</v>
+        <v>1.018983379375337</v>
       </c>
       <c r="E4">
-        <v>1.001617123749365</v>
+        <v>1.005157501460294</v>
       </c>
       <c r="F4">
-        <v>1.004547451613997</v>
+        <v>1.008312481070969</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039023531224089</v>
+        <v>1.041964298316535</v>
       </c>
       <c r="J4">
-        <v>1.015187835762062</v>
+        <v>1.018615237775728</v>
       </c>
       <c r="K4">
-        <v>1.023059844137664</v>
+        <v>1.028857965818001</v>
       </c>
       <c r="L4">
-        <v>1.011696070617236</v>
+        <v>1.015194075989249</v>
       </c>
       <c r="M4">
-        <v>1.014591300999775</v>
+        <v>1.018311606428144</v>
       </c>
       <c r="N4">
-        <v>1.016629518932516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009876438380938</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.031473437340827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9978662826970199</v>
+        <v>1.0004938668479</v>
       </c>
       <c r="D5">
-        <v>1.014780664724191</v>
+        <v>1.019838070007937</v>
       </c>
       <c r="E5">
-        <v>1.003459025857885</v>
+        <v>1.006210959638567</v>
       </c>
       <c r="F5">
-        <v>1.006766926457944</v>
+        <v>1.009775250266019</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039668629709156</v>
+        <v>1.042241644650991</v>
       </c>
       <c r="J5">
-        <v>1.016867889974386</v>
+        <v>1.019429950969027</v>
       </c>
       <c r="K5">
-        <v>1.024483702761889</v>
+        <v>1.029484071083256</v>
       </c>
       <c r="L5">
-        <v>1.013292324877394</v>
+        <v>1.016012263092594</v>
       </c>
       <c r="M5">
-        <v>1.016561792166012</v>
+        <v>1.019535433295221</v>
       </c>
       <c r="N5">
-        <v>1.018311959014527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010159532804054</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.031923407208904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9982321740581291</v>
+        <v>1.000717576585231</v>
       </c>
       <c r="D6">
-        <v>1.015058162600519</v>
+        <v>1.019987668610586</v>
       </c>
       <c r="E6">
-        <v>1.003766350245385</v>
+        <v>1.006392574978781</v>
       </c>
       <c r="F6">
-        <v>1.007137219118573</v>
+        <v>1.010025097272363</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03977603254538</v>
+        <v>1.042291117173162</v>
       </c>
       <c r="J6">
-        <v>1.01714806411</v>
+        <v>1.019571829142611</v>
       </c>
       <c r="K6">
-        <v>1.024721095327289</v>
+        <v>1.029595274062468</v>
       </c>
       <c r="L6">
-        <v>1.013558549401763</v>
+        <v>1.016154389917193</v>
       </c>
       <c r="M6">
-        <v>1.016890454475251</v>
+        <v>1.019745206975732</v>
       </c>
       <c r="N6">
-        <v>1.01859253102955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01020952218408</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.032010878579016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9957022604906395</v>
+        <v>0.9992240017362291</v>
       </c>
       <c r="D7">
-        <v>1.013139545267575</v>
+        <v>1.019012697984529</v>
       </c>
       <c r="E7">
-        <v>1.001641866584808</v>
+        <v>1.005186153799268</v>
       </c>
       <c r="F7">
-        <v>1.004577268613294</v>
+        <v>1.008346266935289</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039032212692874</v>
+        <v>1.041976782832428</v>
       </c>
       <c r="J7">
-        <v>1.015210414273417</v>
+        <v>1.018641480512928</v>
       </c>
       <c r="K7">
-        <v>1.023078983421583</v>
+        <v>1.028884020393589</v>
       </c>
       <c r="L7">
-        <v>1.011717521214551</v>
+        <v>1.015219406345402</v>
       </c>
       <c r="M7">
-        <v>1.014617779166324</v>
+        <v>1.018342024843238</v>
       </c>
       <c r="N7">
-        <v>1.016652129507947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.00988746326411</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.031512198300876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9847600742757087</v>
+        <v>0.9928320352655563</v>
       </c>
       <c r="D8">
-        <v>1.004845142053863</v>
+        <v>1.014840568842492</v>
       </c>
       <c r="E8">
-        <v>0.992466179626028</v>
+        <v>1.000034248613519</v>
       </c>
       <c r="F8">
-        <v>0.9935154782779014</v>
+        <v>1.001166100189292</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035785241675607</v>
+        <v>1.040604617799331</v>
       </c>
       <c r="J8">
-        <v>1.006819783823221</v>
+        <v>1.014650228069888</v>
       </c>
       <c r="K8">
-        <v>1.015959880369553</v>
+        <v>1.025823198611114</v>
       </c>
       <c r="L8">
-        <v>1.003749177728186</v>
+        <v>1.011213755999638</v>
       </c>
       <c r="M8">
-        <v>1.004784008941962</v>
+        <v>1.012330299042334</v>
       </c>
       <c r="N8">
-        <v>1.008249583400094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.0085030443475</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.029352527063934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9638787099888085</v>
+        <v>0.9809886466479811</v>
       </c>
       <c r="D9">
-        <v>0.9890436142496948</v>
+        <v>1.007131725652596</v>
       </c>
       <c r="E9">
-        <v>0.9750164606291898</v>
+        <v>0.9905386274579612</v>
       </c>
       <c r="F9">
-        <v>0.9724490409217823</v>
+        <v>0.9878712587904107</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029478212890628</v>
+        <v>1.037972125513392</v>
       </c>
       <c r="J9">
-        <v>0.9907748120110063</v>
+        <v>1.007231080663257</v>
       </c>
       <c r="K9">
-        <v>1.002316988086229</v>
+        <v>1.020110145655746</v>
       </c>
       <c r="L9">
-        <v>0.9885283154431197</v>
+        <v>1.003787096965481</v>
       </c>
       <c r="M9">
-        <v>0.9860055099101012</v>
+        <v>1.001164229999525</v>
       </c>
       <c r="N9">
-        <v>0.9921818258875214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.005923012899773</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.025309672946297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9486382959146552</v>
+        <v>0.9726787020910445</v>
       </c>
       <c r="D10">
-        <v>0.9775427451166898</v>
+        <v>1.001753365105059</v>
       </c>
       <c r="E10">
-        <v>0.9623335020495486</v>
+        <v>0.983916951322227</v>
       </c>
       <c r="F10">
-        <v>0.9571064488508565</v>
+        <v>0.9785417728751918</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024805637027435</v>
+        <v>1.036074738649377</v>
       </c>
       <c r="J10">
-        <v>0.9790490841275514</v>
+        <v>1.002019866627439</v>
       </c>
       <c r="K10">
-        <v>0.9923296661278915</v>
+        <v>1.016091034003025</v>
       </c>
       <c r="L10">
-        <v>0.9774178521557243</v>
+        <v>0.9985827914318006</v>
       </c>
       <c r="M10">
-        <v>0.9722958936250753</v>
+        <v>0.993309580502146</v>
       </c>
       <c r="N10">
-        <v>0.9804394461255123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.004110052577179</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.022484898144938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9416588967186529</v>
+        <v>0.9689908883406205</v>
       </c>
       <c r="D11">
-        <v>0.9722871194111508</v>
+        <v>0.9993837970929342</v>
       </c>
       <c r="E11">
-        <v>0.9565409404561698</v>
+        <v>0.9809917892506619</v>
       </c>
       <c r="F11">
-        <v>0.9500889795859501</v>
+        <v>0.9743965718533422</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022651031081292</v>
+        <v>1.035227821840687</v>
       </c>
       <c r="J11">
-        <v>0.9736776024939862</v>
+        <v>0.999713106041994</v>
       </c>
       <c r="K11">
-        <v>0.9877512927588735</v>
+        <v>1.014317343461564</v>
       </c>
       <c r="L11">
-        <v>0.9723317610706901</v>
+        <v>0.9962813015186769</v>
       </c>
       <c r="M11">
-        <v>0.9660177932141546</v>
+        <v>0.9898180413359098</v>
       </c>
       <c r="N11">
-        <v>0.9750603363719095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.003310381935721</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.021264216724656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9390023809837483</v>
+        <v>0.9675915559916274</v>
       </c>
       <c r="D12">
-        <v>0.970288761734358</v>
+        <v>0.9984806520011918</v>
       </c>
       <c r="E12">
-        <v>0.9543388210847791</v>
+        <v>0.9798818864235045</v>
       </c>
       <c r="F12">
-        <v>0.947419373894669</v>
+        <v>0.9728260163541381</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021828888242586</v>
+        <v>1.034901005231611</v>
       </c>
       <c r="J12">
-        <v>0.9716330472873158</v>
+        <v>0.9988337746563793</v>
       </c>
       <c r="K12">
-        <v>0.9860082119316491</v>
+        <v>1.01363701832387</v>
       </c>
       <c r="L12">
-        <v>0.9703964122289845</v>
+        <v>0.9954049410705522</v>
       </c>
       <c r="M12">
-        <v>0.9636283702190418</v>
+        <v>0.988493025284371</v>
       </c>
       <c r="N12">
-        <v>0.9730128776623321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.003003868393467</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.020783187547171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9395752359737142</v>
+        <v>0.9678901939328769</v>
       </c>
       <c r="D13">
-        <v>0.970719591662545</v>
+        <v>0.9986723045983855</v>
       </c>
       <c r="E13">
-        <v>0.9548135639972515</v>
+        <v>0.9801183553986801</v>
       </c>
       <c r="F13">
-        <v>0.9479949868968905</v>
+        <v>0.9731616823494422</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022006265875538</v>
+        <v>1.034970097106841</v>
       </c>
       <c r="J13">
-        <v>0.9720739369080106</v>
+        <v>0.9990206768751539</v>
       </c>
       <c r="K13">
-        <v>0.9863841083451605</v>
+        <v>1.01378086586312</v>
       </c>
       <c r="L13">
-        <v>0.9708137256376765</v>
+        <v>0.9955912804753646</v>
       </c>
       <c r="M13">
-        <v>0.9641436194214091</v>
+        <v>0.9887759481354744</v>
       </c>
       <c r="N13">
-        <v>0.9734543933968589</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.003068689257968</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.02088235523314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9414406594669656</v>
+        <v>0.968874589380286</v>
       </c>
       <c r="D14">
-        <v>0.9721229071671187</v>
+        <v>0.9993082687810542</v>
       </c>
       <c r="E14">
-        <v>0.956359976868431</v>
+        <v>0.9808993726647773</v>
       </c>
       <c r="F14">
-        <v>0.9498696380674567</v>
+        <v>0.9742662501923447</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022583531123904</v>
+        <v>1.035200382336051</v>
       </c>
       <c r="J14">
-        <v>0.9735096385788435</v>
+        <v>0.9996397004750508</v>
       </c>
       <c r="K14">
-        <v>0.9876081032637776</v>
+        <v>1.014260227944076</v>
       </c>
       <c r="L14">
-        <v>0.972172756676174</v>
+        <v>0.9962081731569087</v>
       </c>
       <c r="M14">
-        <v>0.9658214940152844</v>
+        <v>0.9897079815872998</v>
       </c>
       <c r="N14">
-        <v>0.9748921339287417</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.003284654960987</v>
+      </c>
+      <c r="Q14">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R14">
+        <v>1.021222744493441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9425812923665452</v>
+        <v>0.9694833473080458</v>
       </c>
       <c r="D15">
-        <v>0.9729812598848422</v>
+        <v>0.9997037760805758</v>
       </c>
       <c r="E15">
-        <v>0.9573059060262994</v>
+        <v>0.9813832207254682</v>
       </c>
       <c r="F15">
-        <v>0.9510160998429152</v>
+        <v>0.9749483542660875</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022936242456152</v>
+        <v>1.03534401735071</v>
       </c>
       <c r="J15">
-        <v>0.9743875134900557</v>
+        <v>1.00002400969108</v>
       </c>
       <c r="K15">
-        <v>0.9883564769448603</v>
+        <v>1.014559322226934</v>
       </c>
       <c r="L15">
-        <v>0.9730038277521948</v>
+        <v>0.996591040027767</v>
       </c>
       <c r="M15">
-        <v>0.9668474734583351</v>
+        <v>0.9902840392746056</v>
       </c>
       <c r="N15">
-        <v>0.9757712555230216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.00341937741796</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.021440204433904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9490929199948918</v>
+        <v>0.9729606532616986</v>
       </c>
       <c r="D16">
-        <v>0.9778853465578964</v>
+        <v>1.001952515977728</v>
       </c>
       <c r="E16">
-        <v>0.9627111647806085</v>
+        <v>0.9841462655146768</v>
       </c>
       <c r="F16">
-        <v>0.957563739550346</v>
+        <v>0.9788504231793206</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024945693003725</v>
+        <v>1.036151830039823</v>
       </c>
       <c r="J16">
-        <v>0.9793989537112864</v>
+        <v>1.002209349241217</v>
       </c>
       <c r="K16">
-        <v>0.9926278165133827</v>
+        <v>1.016250032030382</v>
       </c>
       <c r="L16">
-        <v>0.9777492094970111</v>
+        <v>0.9987702486704729</v>
       </c>
       <c r="M16">
-        <v>0.9727048518082405</v>
+        <v>0.9935744999834464</v>
       </c>
       <c r="N16">
-        <v>0.9807898125641865</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.004181283449952</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.022638856821969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,81 +1138,93 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9530711651217165</v>
+        <v>0.97511105724013</v>
       </c>
       <c r="D17">
-        <v>0.9808846208583093</v>
+        <v>1.003345236818407</v>
       </c>
       <c r="E17">
-        <v>0.966017735421117</v>
+        <v>0.9858577597836653</v>
       </c>
       <c r="F17">
-        <v>0.9615663064001438</v>
+        <v>0.9812633685832847</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026169631002673</v>
+        <v>1.036648283139937</v>
       </c>
       <c r="J17">
-        <v>0.9824603675864759</v>
+        <v>1.003560461786999</v>
       </c>
       <c r="K17">
-        <v>0.9952363240267674</v>
+        <v>1.017294865052296</v>
       </c>
       <c r="L17">
-        <v>0.9806490400076534</v>
+        <v>1.000118382286591</v>
       </c>
       <c r="M17">
-        <v>0.9762835341051613</v>
+        <v>0.9956080928478779</v>
       </c>
       <c r="N17">
-        <v>0.9838555739982278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.004652250476423</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.023380243999244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.9553554505294058</v>
+        <v>0.9763425132454386</v>
       </c>
       <c r="D18">
-        <v>0.9826078090910949</v>
+        <v>1.004138074007241</v>
       </c>
       <c r="E18">
-        <v>0.9679177861199627</v>
+        <v>0.9868372215438375</v>
       </c>
       <c r="F18">
-        <v>0.9638653643651577</v>
+        <v>0.9826476517938803</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026871018327453</v>
+        <v>1.036927606393713</v>
       </c>
       <c r="J18">
-        <v>0.9842180462725637</v>
+        <v>1.004330058310034</v>
       </c>
       <c r="K18">
-        <v>0.996733663095598</v>
+        <v>1.017885759160768</v>
       </c>
       <c r="L18">
-        <v>0.9823142743256748</v>
+        <v>1.000887096808066</v>
       </c>
       <c r="M18">
-        <v>0.9783384087691853</v>
+        <v>0.9967727860816767</v>
       </c>
       <c r="N18">
-        <v>0.9856157487896586</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.004918822074146</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.023786198246308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9561283916619895</v>
+        <v>0.9767699574947174</v>
       </c>
       <c r="D19">
-        <v>0.9831910535135758</v>
+        <v>1.004417617776486</v>
       </c>
       <c r="E19">
-        <v>0.968560947895174</v>
+        <v>0.9871786213370414</v>
       </c>
       <c r="F19">
-        <v>0.9646434386270998</v>
+        <v>0.9831261810027898</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027108108514805</v>
+        <v>1.037027367978241</v>
       </c>
       <c r="J19">
-        <v>0.9848127640019092</v>
+        <v>1.004600283239063</v>
       </c>
       <c r="K19">
-        <v>0.9972402394076703</v>
+        <v>1.018096394011915</v>
       </c>
       <c r="L19">
-        <v>0.9828777673748419</v>
+        <v>1.001156646326194</v>
       </c>
       <c r="M19">
-        <v>0.9790337228299485</v>
+        <v>0.997176530791094</v>
       </c>
       <c r="N19">
-        <v>0.9862113110863948</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.005013714253725</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.023941630643514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9526481233850611</v>
+        <v>0.9748805169839518</v>
       </c>
       <c r="D20">
-        <v>0.9805655729276593</v>
+        <v>1.003195429259912</v>
       </c>
       <c r="E20">
-        <v>0.9656659671789153</v>
+        <v>0.9856740447894553</v>
       </c>
       <c r="F20">
-        <v>0.9611405937378195</v>
+        <v>0.9810048810896749</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026039622536815</v>
+        <v>1.036594877772947</v>
       </c>
       <c r="J20">
-        <v>0.9821348366985072</v>
+        <v>1.003415314019866</v>
       </c>
       <c r="K20">
-        <v>0.9949589838057166</v>
+        <v>1.01718232264981</v>
       </c>
       <c r="L20">
-        <v>0.9803406565164394</v>
+        <v>0.9999735648051139</v>
       </c>
       <c r="M20">
-        <v>0.9759029789308956</v>
+        <v>0.9953901676325724</v>
       </c>
       <c r="N20">
-        <v>0.9835295808190593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.004601529011355</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.023299311744902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9408931687966038</v>
+        <v>0.9685984001171957</v>
       </c>
       <c r="D21">
-        <v>0.9717109830180249</v>
+        <v>0.9991355962857456</v>
       </c>
       <c r="E21">
-        <v>0.9559060382795311</v>
+        <v>0.9806820126663356</v>
       </c>
       <c r="F21">
-        <v>0.9493193999414999</v>
+        <v>0.9739536556381223</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022414162006976</v>
+        <v>1.035139924281886</v>
       </c>
       <c r="J21">
-        <v>0.9730882683104497</v>
+        <v>0.9994703161489046</v>
       </c>
       <c r="K21">
-        <v>0.9872488782097638</v>
+        <v>1.014133363586702</v>
       </c>
       <c r="L21">
-        <v>0.9717738725579932</v>
+        <v>0.9960388515195761</v>
       </c>
       <c r="M21">
-        <v>0.9653290422893379</v>
+        <v>0.9894458764398815</v>
       </c>
       <c r="N21">
-        <v>0.9744701652662352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00322740641195</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.021146814122776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9331273691707566</v>
+        <v>0.9645274863690254</v>
       </c>
       <c r="D22">
-        <v>0.9658735451437653</v>
+        <v>0.9965047959245095</v>
       </c>
       <c r="E22">
-        <v>0.9494740349234232</v>
+        <v>0.9774544949156809</v>
       </c>
       <c r="F22">
-        <v>0.9415181154527246</v>
+        <v>0.9693870855108943</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020007095489756</v>
+        <v>1.034181763979701</v>
       </c>
       <c r="J22">
-        <v>0.9671115732472767</v>
+        <v>0.9969076024111113</v>
       </c>
       <c r="K22">
-        <v>0.9821527844517034</v>
+        <v>1.012145812939216</v>
       </c>
       <c r="L22">
-        <v>0.9661175708887558</v>
+        <v>0.9934862155954338</v>
       </c>
       <c r="M22">
-        <v>0.958344502268176</v>
+        <v>0.9855904013509126</v>
       </c>
       <c r="N22">
-        <v>0.9684849826105356</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.002332164969395</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.019727726512475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9372823617490628</v>
+        <v>0.966680026324241</v>
       </c>
       <c r="D23">
-        <v>0.9689955100329295</v>
+        <v>0.997888195371934</v>
       </c>
       <c r="E23">
-        <v>0.9529138035981143</v>
+        <v>0.9791579483480074</v>
       </c>
       <c r="F23">
-        <v>0.9456912866244941</v>
+        <v>0.9718050146471402</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021296018694239</v>
+        <v>1.034684427449281</v>
       </c>
       <c r="J23">
-        <v>0.9703092690153388</v>
+        <v>0.9982575918901013</v>
       </c>
       <c r="K23">
-        <v>0.9848795238376259</v>
+        <v>1.013187819429068</v>
       </c>
       <c r="L23">
-        <v>0.9691435105544376</v>
+        <v>0.9948312291160935</v>
       </c>
       <c r="M23">
-        <v>0.962081349029967</v>
+        <v>0.9876301866243179</v>
       </c>
       <c r="N23">
-        <v>0.9716872194733691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.002801564208824</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.020454673241981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9528393889646752</v>
+        <v>0.974959210466237</v>
       </c>
       <c r="D24">
-        <v>0.9807098176861926</v>
+        <v>1.003235191074069</v>
       </c>
       <c r="E24">
-        <v>0.9658250041469676</v>
+        <v>0.9857333418950884</v>
       </c>
       <c r="F24">
-        <v>0.961333064391615</v>
+        <v>0.9810983845422839</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026098406287507</v>
+        <v>1.036605035828556</v>
       </c>
       <c r="J24">
-        <v>0.9822820162200409</v>
+        <v>1.003456465501867</v>
       </c>
       <c r="K24">
-        <v>0.9950843762538391</v>
+        <v>1.01720573033481</v>
       </c>
       <c r="L24">
-        <v>0.9804800823167087</v>
+        <v>1.000015715449104</v>
       </c>
       <c r="M24">
-        <v>0.9760750354502041</v>
+        <v>0.9954657687449663</v>
       </c>
       <c r="N24">
-        <v>0.9836769693523956</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.004612424034361</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.023287987370146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9694896073581746</v>
+        <v>0.9841467975202974</v>
       </c>
       <c r="D25">
-        <v>0.9932851880134451</v>
+        <v>1.009194837356236</v>
       </c>
       <c r="E25">
-        <v>0.9796972306381252</v>
+        <v>0.9930674196058928</v>
       </c>
       <c r="F25">
-        <v>0.9781043781870308</v>
+        <v>0.9914107572322857</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031185120680039</v>
+        <v>1.038691839807037</v>
       </c>
       <c r="J25">
-        <v>0.9950892772612526</v>
+        <v>1.009219722683279</v>
       </c>
       <c r="K25">
-        <v>1.005988644884536</v>
+        <v>1.02165207269583</v>
       </c>
       <c r="L25">
-        <v>0.9926191154918798</v>
+        <v>1.005774316782801</v>
       </c>
       <c r="M25">
-        <v>0.9910523793945738</v>
+        <v>1.004143889747911</v>
       </c>
       <c r="N25">
-        <v>0.9965024181732989</v>
+        <v>1.006618333436359</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.026428963208912</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9911295060062268</v>
+        <v>0.9923209388291924</v>
       </c>
       <c r="D2">
-        <v>1.013721497182454</v>
+        <v>1.014574938989557</v>
       </c>
       <c r="E2">
-        <v>0.9986628772421072</v>
+        <v>0.9997162117743178</v>
       </c>
       <c r="F2">
-        <v>0.9992584883028736</v>
+        <v>1.000231756439986</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.040226502871894</v>
+        <v>1.04063372462342</v>
       </c>
       <c r="J2">
-        <v>1.013578808223043</v>
+        <v>1.01473378053732</v>
       </c>
       <c r="K2">
-        <v>1.024992923142625</v>
+        <v>1.025834888529921</v>
       </c>
       <c r="L2">
-        <v>1.010140871793854</v>
+        <v>1.011179501633511</v>
       </c>
       <c r="M2">
-        <v>1.010728163235719</v>
+        <v>1.011687863470611</v>
       </c>
       <c r="N2">
-        <v>1.008128480343951</v>
+        <v>1.010893510141138</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.028742234509146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.029346479488965</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018936642888969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9960652954886022</v>
+        <v>0.9969349669265213</v>
       </c>
       <c r="D3">
-        <v>1.016940919512642</v>
+        <v>1.01746107634519</v>
       </c>
       <c r="E3">
-        <v>1.002635533706666</v>
+        <v>1.003407777075752</v>
       </c>
       <c r="F3">
-        <v>1.004801725470766</v>
+        <v>1.005497748061798</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041296904109767</v>
+        <v>1.04155644027319</v>
       </c>
       <c r="J3">
-        <v>1.016663802284991</v>
+        <v>1.017509538014358</v>
       </c>
       <c r="K3">
-        <v>1.027361531377095</v>
+        <v>1.027875309800843</v>
       </c>
       <c r="L3">
-        <v>1.013234803092114</v>
+        <v>1.013997239664151</v>
       </c>
       <c r="M3">
-        <v>1.015373533797627</v>
+        <v>1.016060764173709</v>
       </c>
       <c r="N3">
-        <v>1.009199447581981</v>
+        <v>1.011658069099444</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.030414394826215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.030786291507899</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019385702708686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9991908101654873</v>
+        <v>0.9998599380102786</v>
       </c>
       <c r="D4">
-        <v>1.018983379375337</v>
+        <v>1.019294480056625</v>
       </c>
       <c r="E4">
-        <v>1.005157501460294</v>
+        <v>1.005754276775721</v>
       </c>
       <c r="F4">
-        <v>1.008312481070969</v>
+        <v>1.008836233952918</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.041964298316535</v>
+        <v>1.042131182768817</v>
       </c>
       <c r="J4">
-        <v>1.018615237775728</v>
+        <v>1.019267227266542</v>
       </c>
       <c r="K4">
-        <v>1.028857965818001</v>
+        <v>1.029165483991814</v>
       </c>
       <c r="L4">
-        <v>1.015194075989249</v>
+        <v>1.015783745331685</v>
       </c>
       <c r="M4">
-        <v>1.018311606428144</v>
+        <v>1.018829170512862</v>
       </c>
       <c r="N4">
-        <v>1.009876438380938</v>
+        <v>1.012141995226277</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.031473437340827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.031699562516841</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019667059139113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0004938668479</v>
+        <v>1.001079985139658</v>
       </c>
       <c r="D5">
-        <v>1.019838070007937</v>
+        <v>1.020062415576162</v>
       </c>
       <c r="E5">
-        <v>1.006210959638567</v>
+        <v>1.006735031581058</v>
       </c>
       <c r="F5">
-        <v>1.009775250266019</v>
+        <v>1.010227816314204</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042241644650991</v>
+        <v>1.042370045771453</v>
       </c>
       <c r="J5">
-        <v>1.019429950969027</v>
+        <v>1.020001516661654</v>
       </c>
       <c r="K5">
-        <v>1.029484071083256</v>
+        <v>1.029705902632513</v>
       </c>
       <c r="L5">
-        <v>1.016012263092594</v>
+        <v>1.016530266374172</v>
       </c>
       <c r="M5">
-        <v>1.019535433295221</v>
+        <v>1.019982803819023</v>
       </c>
       <c r="N5">
-        <v>1.010159532804054</v>
+        <v>1.012344533628168</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.031923407208904</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.032089649720941</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019784802698628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000717576585231</v>
+        <v>1.001289333368629</v>
       </c>
       <c r="D6">
-        <v>1.019987668610586</v>
+        <v>1.020197080148284</v>
       </c>
       <c r="E6">
-        <v>1.006392574978781</v>
+        <v>1.006904044379823</v>
       </c>
       <c r="F6">
-        <v>1.010025097272363</v>
+        <v>1.010465355185932</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042291117173162</v>
+        <v>1.042412854544071</v>
       </c>
       <c r="J6">
-        <v>1.019571829142611</v>
+        <v>1.020129464777937</v>
       </c>
       <c r="K6">
-        <v>1.029595274062468</v>
+        <v>1.029802349798183</v>
       </c>
       <c r="L6">
-        <v>1.016154389917193</v>
+        <v>1.016659964625362</v>
       </c>
       <c r="M6">
-        <v>1.019745206975732</v>
+        <v>1.020180435395666</v>
       </c>
       <c r="N6">
-        <v>1.01020952218408</v>
+        <v>1.012380345985125</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.032010878579016</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032167553104233</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019806410843798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9992240017362291</v>
+        <v>0.9999022791729598</v>
       </c>
       <c r="D7">
-        <v>1.019012697984529</v>
+        <v>1.019329760095719</v>
       </c>
       <c r="E7">
-        <v>1.005186153799268</v>
+        <v>1.005791343046279</v>
       </c>
       <c r="F7">
-        <v>1.008346266935289</v>
+        <v>1.008877984975749</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.041976782832428</v>
+        <v>1.042146714346299</v>
       </c>
       <c r="J7">
-        <v>1.018641480512928</v>
+        <v>1.019302393384312</v>
       </c>
       <c r="K7">
-        <v>1.028884020393589</v>
+        <v>1.029197432854602</v>
       </c>
       <c r="L7">
-        <v>1.015219406345402</v>
+        <v>1.015817392434864</v>
       </c>
       <c r="M7">
-        <v>1.018342024843238</v>
+        <v>1.018867462657845</v>
       </c>
       <c r="N7">
-        <v>1.00988746326411</v>
+        <v>1.012179591938867</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.031512198300876</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.031744483494691</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019676517984378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9928320352655563</v>
+        <v>0.9939474765980132</v>
       </c>
       <c r="D8">
-        <v>1.014840568842492</v>
+        <v>1.015604478252683</v>
       </c>
       <c r="E8">
-        <v>1.000034248613519</v>
+        <v>1.001022773419415</v>
       </c>
       <c r="F8">
-        <v>1.001166100189292</v>
+        <v>1.002074311561426</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I8">
-        <v>1.040604617799331</v>
+        <v>1.040973686689233</v>
       </c>
       <c r="J8">
-        <v>1.014650228069888</v>
+        <v>1.015732718448576</v>
       </c>
       <c r="K8">
-        <v>1.025823198611114</v>
+        <v>1.026577145477308</v>
       </c>
       <c r="L8">
-        <v>1.011213755999638</v>
+        <v>1.012188908390139</v>
       </c>
       <c r="M8">
-        <v>1.012330299042334</v>
+        <v>1.013226258102119</v>
       </c>
       <c r="N8">
-        <v>1.0085030443475</v>
+        <v>1.011251265001901</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.029352527063934</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.029896786047755</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.01910514250057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9809886466479811</v>
+        <v>0.9829035101776774</v>
       </c>
       <c r="D9">
-        <v>1.007131725652596</v>
+        <v>1.008712836977961</v>
       </c>
       <c r="E9">
-        <v>0.9905386274579612</v>
+        <v>0.99222389364401</v>
       </c>
       <c r="F9">
-        <v>0.9878712587904107</v>
+        <v>0.9894725724090261</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.037972125513392</v>
+        <v>1.038703695525697</v>
       </c>
       <c r="J9">
-        <v>1.007231080663257</v>
+        <v>1.009074778291085</v>
       </c>
       <c r="K9">
-        <v>1.020110145655746</v>
+        <v>1.02166611861292</v>
       </c>
       <c r="L9">
-        <v>1.003787096965481</v>
+        <v>1.005444405361242</v>
       </c>
       <c r="M9">
-        <v>1.001164229999525</v>
+        <v>1.002738790628231</v>
       </c>
       <c r="N9">
-        <v>1.005923012899773</v>
+        <v>1.009424905402102</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.025309672946297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.02642078948477</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018008263221397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9726787020910445</v>
+        <v>0.9752320759330162</v>
       </c>
       <c r="D10">
-        <v>1.001753365105059</v>
+        <v>1.00396147885668</v>
       </c>
       <c r="E10">
-        <v>0.983916951322227</v>
+        <v>0.9861588115844321</v>
       </c>
       <c r="F10">
-        <v>0.9785417728751918</v>
+        <v>0.9807027435709939</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.036074738649377</v>
+        <v>1.037086956958579</v>
       </c>
       <c r="J10">
-        <v>1.002019866627439</v>
+        <v>1.004464043366333</v>
       </c>
       <c r="K10">
-        <v>1.016091034003025</v>
+        <v>1.018259574066</v>
       </c>
       <c r="L10">
-        <v>0.9985827914318006</v>
+        <v>1.000782552272124</v>
       </c>
       <c r="M10">
-        <v>0.993309580502146</v>
+        <v>0.9954293817382881</v>
       </c>
       <c r="N10">
-        <v>1.004110052577179</v>
+        <v>1.008274501063699</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.022484898144938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.024030844534143</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017238367867661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9689908883406205</v>
+        <v>0.9719226469893953</v>
       </c>
       <c r="D11">
-        <v>0.9993837970929342</v>
+        <v>1.00193968272458</v>
       </c>
       <c r="E11">
-        <v>0.9809917892506619</v>
+        <v>0.9835674440309127</v>
       </c>
       <c r="F11">
-        <v>0.9743965718533422</v>
+        <v>0.9768938873881364</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.035227821840687</v>
+        <v>1.036399958272698</v>
       </c>
       <c r="J11">
-        <v>0.999713106041994</v>
+        <v>1.002511991753228</v>
       </c>
       <c r="K11">
-        <v>1.014317343461564</v>
+        <v>1.016825111942</v>
       </c>
       <c r="L11">
-        <v>0.9962813015186769</v>
+        <v>0.9988060534582578</v>
       </c>
       <c r="M11">
-        <v>0.9898180413359098</v>
+        <v>0.9922651147575738</v>
       </c>
       <c r="N11">
-        <v>1.003310381935721</v>
+        <v>1.007975933080533</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.021264216724656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.023053218445125</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.016919694675743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9675915559916274</v>
+        <v>0.9706768981637744</v>
       </c>
       <c r="D12">
-        <v>0.9984806520011918</v>
+        <v>1.001175979395196</v>
       </c>
       <c r="E12">
-        <v>0.9798818864235045</v>
+        <v>0.9825934716566287</v>
       </c>
       <c r="F12">
-        <v>0.9728260163541381</v>
+        <v>0.9754607262942577</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.034901005231611</v>
+        <v>1.036137849045175</v>
       </c>
       <c r="J12">
-        <v>0.9988337746563793</v>
+        <v>1.001776282586037</v>
       </c>
       <c r="K12">
-        <v>1.01363701832387</v>
+        <v>1.01628068412276</v>
       </c>
       <c r="L12">
-        <v>0.9954049410705522</v>
+        <v>0.9980619279413885</v>
       </c>
       <c r="M12">
-        <v>0.988493025284371</v>
+        <v>0.9910736604307305</v>
       </c>
       <c r="N12">
-        <v>1.003003868393467</v>
+        <v>1.00787897528644</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.020783187547171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.022668286713393</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.016797799951553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9678901939328769</v>
+        <v>0.9709423735293971</v>
       </c>
       <c r="D13">
-        <v>0.9986723045983855</v>
+        <v>1.001337569289815</v>
       </c>
       <c r="E13">
-        <v>0.9801183553986801</v>
+        <v>0.9828005872120894</v>
       </c>
       <c r="F13">
-        <v>0.9731616823494422</v>
+        <v>0.9757666790268805</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.034970097106841</v>
+        <v>1.036192994746711</v>
       </c>
       <c r="J13">
-        <v>0.9990206768751539</v>
+        <v>1.001932196348784</v>
       </c>
       <c r="K13">
-        <v>1.01378086586312</v>
+        <v>1.016395240424509</v>
       </c>
       <c r="L13">
-        <v>0.9955912804753646</v>
+        <v>0.9982197195334717</v>
       </c>
       <c r="M13">
-        <v>0.9887759481354744</v>
+        <v>0.9913277072309856</v>
       </c>
       <c r="N13">
-        <v>1.003068689257968</v>
+        <v>1.007898287696649</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.02088235523314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.022746502239073</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.016823191420898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.968874589380286</v>
+        <v>0.9718189337063934</v>
       </c>
       <c r="D14">
-        <v>0.9993082687810542</v>
+        <v>1.001875603297651</v>
       </c>
       <c r="E14">
-        <v>0.9808993726647773</v>
+        <v>0.9834861647803809</v>
       </c>
       <c r="F14">
-        <v>0.9742662501923447</v>
+        <v>0.976774804369192</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.035200382336051</v>
+        <v>1.036377832603036</v>
       </c>
       <c r="J14">
-        <v>0.9996397004750508</v>
+        <v>1.002450365718841</v>
       </c>
       <c r="K14">
-        <v>1.014260227944076</v>
+        <v>1.016779157509588</v>
       </c>
       <c r="L14">
-        <v>0.9962081731569087</v>
+        <v>0.9987437629531815</v>
       </c>
       <c r="M14">
-        <v>0.9897079815872998</v>
+        <v>0.9921659837886314</v>
       </c>
       <c r="N14">
-        <v>1.003284654960987</v>
+        <v>1.007967257612121</v>
       </c>
       <c r="Q14">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.021222744493441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.023019535964834</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.016909295522683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9694833473080458</v>
+        <v>0.9723622005553494</v>
       </c>
       <c r="D15">
-        <v>0.9997037760805758</v>
+        <v>1.002211477625901</v>
       </c>
       <c r="E15">
-        <v>0.9813832207254682</v>
+        <v>0.9839120725695139</v>
       </c>
       <c r="F15">
-        <v>0.9749483542660875</v>
+        <v>0.9773984647050814</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.03534401735071</v>
+        <v>1.036493806614115</v>
       </c>
       <c r="J15">
-        <v>1.00002400969108</v>
+        <v>1.002773362274539</v>
       </c>
       <c r="K15">
-        <v>1.014559322226934</v>
+        <v>1.017020112467318</v>
       </c>
       <c r="L15">
-        <v>0.996591040027767</v>
+        <v>0.9990702422926699</v>
       </c>
       <c r="M15">
-        <v>0.9902840392746056</v>
+        <v>0.9926852031966265</v>
       </c>
       <c r="N15">
-        <v>1.00341937741796</v>
+        <v>1.00801348031679</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.021440204433904</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.023196447848004</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.016963858108118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9729606532616986</v>
+        <v>0.9754861449631342</v>
       </c>
       <c r="D16">
-        <v>1.001952515977728</v>
+        <v>1.00413500145046</v>
       </c>
       <c r="E16">
-        <v>0.9841462655146768</v>
+        <v>0.9863633791939499</v>
       </c>
       <c r="F16">
-        <v>0.9788504231793206</v>
+        <v>0.9809867581009891</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I16">
-        <v>1.036151830039823</v>
+        <v>1.037151955553472</v>
       </c>
       <c r="J16">
-        <v>1.002209349241217</v>
+        <v>1.00462726901206</v>
       </c>
       <c r="K16">
-        <v>1.016250032030382</v>
+        <v>1.018393536854207</v>
       </c>
       <c r="L16">
-        <v>0.9987702486704729</v>
+        <v>1.000945874478197</v>
       </c>
       <c r="M16">
-        <v>0.9935744999834464</v>
+        <v>0.9956702872916743</v>
       </c>
       <c r="N16">
-        <v>1.004181283449952</v>
+        <v>1.008310423210509</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.022638856821969</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.024171043309657</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017272409001507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,93 +1279,111 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.97511105724013</v>
+        <v>0.9774376145734796</v>
       </c>
       <c r="D17">
-        <v>1.003345236818407</v>
+        <v>1.005341051536673</v>
       </c>
       <c r="E17">
-        <v>0.9858577597836653</v>
+        <v>0.98790001941281</v>
       </c>
       <c r="F17">
-        <v>0.9812633685832847</v>
+        <v>0.9832242166931744</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.036648283139937</v>
+        <v>1.037563307679833</v>
       </c>
       <c r="J17">
-        <v>1.003560461786999</v>
+        <v>1.005791320828016</v>
       </c>
       <c r="K17">
-        <v>1.017294865052296</v>
+        <v>1.019256076403089</v>
       </c>
       <c r="L17">
-        <v>1.000118382286591</v>
+        <v>1.002123584307192</v>
       </c>
       <c r="M17">
-        <v>0.9956080928478779</v>
+        <v>0.9975329218219176</v>
       </c>
       <c r="N17">
-        <v>1.004652250476423</v>
+        <v>1.008534281562274</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.023380243999244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.024783774672785</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017466726939682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9763425132454386</v>
+        <v>0.9785629303813329</v>
       </c>
       <c r="D18">
-        <v>1.004138074007241</v>
+        <v>1.006032602440599</v>
       </c>
       <c r="E18">
-        <v>0.9868372215438375</v>
+        <v>0.9887864974726974</v>
       </c>
       <c r="F18">
-        <v>0.9826476517938803</v>
+        <v>0.9845152095049671</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.036927606393713</v>
+        <v>1.037796867837081</v>
       </c>
       <c r="J18">
-        <v>1.004330058310034</v>
+        <v>1.006461004145353</v>
       </c>
       <c r="K18">
-        <v>1.017885759160768</v>
+        <v>1.019748011487573</v>
       </c>
       <c r="L18">
-        <v>1.000887096808066</v>
+        <v>1.002801639181619</v>
       </c>
       <c r="M18">
-        <v>0.9967727860816767</v>
+        <v>0.9986066932459171</v>
       </c>
       <c r="N18">
-        <v>1.004918822074146</v>
+        <v>1.008675659659811</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.023786198246308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.025118628532876</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017576489649272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9767699574947174</v>
+        <v>0.9789546071991586</v>
       </c>
       <c r="D19">
-        <v>1.004417617776486</v>
+        <v>1.006277812557468</v>
       </c>
       <c r="E19">
-        <v>0.9871786213370414</v>
+        <v>0.9890965604436253</v>
       </c>
       <c r="F19">
-        <v>0.9831261810027898</v>
+        <v>0.9849623618722139</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.037027367978241</v>
+        <v>1.037881083979879</v>
       </c>
       <c r="J19">
-        <v>1.004600283239063</v>
+        <v>1.006697524827208</v>
       </c>
       <c r="K19">
-        <v>1.018096394011915</v>
+        <v>1.019925088749682</v>
       </c>
       <c r="L19">
-        <v>1.001156646326194</v>
+        <v>1.003040623492597</v>
       </c>
       <c r="M19">
-        <v>0.997176530791094</v>
+        <v>0.9989798451922768</v>
       </c>
       <c r="N19">
-        <v>1.005013714253725</v>
+        <v>1.008729623482269</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.023941630643514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.025250948485931</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.01761702731046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9748805169839518</v>
+        <v>0.9772276461901481</v>
       </c>
       <c r="D20">
-        <v>1.003195429259912</v>
+        <v>1.005210700519267</v>
       </c>
       <c r="E20">
-        <v>0.9856740447894553</v>
+        <v>0.9877343648448453</v>
       </c>
       <c r="F20">
-        <v>0.9810048810896749</v>
+        <v>0.9829838368390462</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.036594877772947</v>
+        <v>1.037518749286588</v>
       </c>
       <c r="J20">
-        <v>1.003415314019866</v>
+        <v>1.005665533629787</v>
       </c>
       <c r="K20">
-        <v>1.01718232264981</v>
+        <v>1.019162540694148</v>
       </c>
       <c r="L20">
-        <v>0.9999735648051139</v>
+        <v>1.001996374859779</v>
       </c>
       <c r="M20">
-        <v>0.9953901676325724</v>
+        <v>0.9973326429056786</v>
       </c>
       <c r="N20">
-        <v>1.004601529011355</v>
+        <v>1.008508432582674</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.023299311744902</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.024716153990552</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017445536057366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9685984001171957</v>
+        <v>0.9716033690074223</v>
       </c>
       <c r="D21">
-        <v>0.9991355962857456</v>
+        <v>1.001753061323706</v>
       </c>
       <c r="E21">
-        <v>0.9806820126663356</v>
+        <v>0.9833237232624921</v>
       </c>
       <c r="F21">
-        <v>0.9739536556381223</v>
+        <v>0.9765171054542502</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.035139924281886</v>
+        <v>1.036341720897845</v>
       </c>
       <c r="J21">
-        <v>0.9994703161489046</v>
+        <v>1.002338262053904</v>
       </c>
       <c r="K21">
-        <v>1.014133363586702</v>
+        <v>1.016701297360739</v>
       </c>
       <c r="L21">
-        <v>0.9960388515195761</v>
+        <v>0.9986280734254642</v>
       </c>
       <c r="M21">
-        <v>0.9894458764398815</v>
+        <v>0.9919574571841647</v>
       </c>
       <c r="N21">
-        <v>1.00322740641195</v>
+        <v>1.0080226888687</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.021146814122776</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.02297955193588</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.016895471793575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9645274863690254</v>
+        <v>0.9679642228164193</v>
       </c>
       <c r="D22">
-        <v>0.9965047959245095</v>
+        <v>0.9995172149650792</v>
       </c>
       <c r="E22">
-        <v>0.9774544949156809</v>
+        <v>0.9804778002018263</v>
       </c>
       <c r="F22">
-        <v>0.9693870855108943</v>
+        <v>0.972338175974905</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.034181763979701</v>
+        <v>1.035566625088854</v>
       </c>
       <c r="J22">
-        <v>0.9969076024111113</v>
+        <v>1.000177860208869</v>
       </c>
       <c r="K22">
-        <v>1.012145812939216</v>
+        <v>1.01509824199206</v>
       </c>
       <c r="L22">
-        <v>0.9934862155954338</v>
+        <v>0.9964461759958031</v>
       </c>
       <c r="M22">
-        <v>0.9855904013509126</v>
+        <v>0.9884782839667137</v>
       </c>
       <c r="N22">
-        <v>1.002332164969395</v>
+        <v>1.007693606715934</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.019727726512475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.021831059777037</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.016533364079069</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.966680026324241</v>
+        <v>0.9698679506351456</v>
       </c>
       <c r="D23">
-        <v>0.997888195371934</v>
+        <v>1.000676278152709</v>
       </c>
       <c r="E23">
-        <v>0.9791579483480074</v>
+        <v>0.9819604964808168</v>
       </c>
       <c r="F23">
-        <v>0.9718050146471402</v>
+        <v>0.9745317789689486</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.034684427449281</v>
+        <v>1.035964557210555</v>
       </c>
       <c r="J23">
-        <v>0.9982575918901013</v>
+        <v>1.001295923310392</v>
       </c>
       <c r="K23">
-        <v>1.013187819429068</v>
+        <v>1.015921848563226</v>
       </c>
       <c r="L23">
-        <v>0.9948312291160935</v>
+        <v>0.9975766732018628</v>
       </c>
       <c r="M23">
-        <v>0.9876301866243179</v>
+        <v>0.9903002704402361</v>
       </c>
       <c r="N23">
-        <v>1.002801564208824</v>
+        <v>1.007817654452547</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.020454673241981</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.022402644404273</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.016716465360476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.974959210466237</v>
+        <v>0.9772998865070501</v>
       </c>
       <c r="D24">
-        <v>1.003235191074069</v>
+        <v>1.005244116367423</v>
       </c>
       <c r="E24">
-        <v>0.9857333418950884</v>
+        <v>0.9877881274994106</v>
       </c>
       <c r="F24">
-        <v>0.9810983845422839</v>
+        <v>0.9830716436885725</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.036605035828556</v>
+        <v>1.037526258984592</v>
       </c>
       <c r="J24">
-        <v>1.003456465501867</v>
+        <v>1.005700656246181</v>
       </c>
       <c r="K24">
-        <v>1.01720573033481</v>
+        <v>1.019179761086872</v>
       </c>
       <c r="L24">
-        <v>1.000015715449104</v>
+        <v>1.002033145812911</v>
       </c>
       <c r="M24">
-        <v>0.9954657687449663</v>
+        <v>0.9974027083254831</v>
       </c>
       <c r="N24">
-        <v>1.004612424034361</v>
+        <v>1.008511493379635</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.023287987370146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.024697807123274</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017446811427867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9841467975202974</v>
+        <v>0.9858293577976095</v>
       </c>
       <c r="D25">
-        <v>1.009194837356236</v>
+        <v>1.010544758710836</v>
       </c>
       <c r="E25">
-        <v>0.9930674196058928</v>
+        <v>0.9945497701054973</v>
       </c>
       <c r="F25">
-        <v>0.9914107572322857</v>
+        <v>0.9928097206311558</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.038691839807037</v>
+        <v>1.039319948032587</v>
       </c>
       <c r="J25">
-        <v>1.009219722683279</v>
+        <v>1.010843216147921</v>
       </c>
       <c r="K25">
-        <v>1.02165207269583</v>
+        <v>1.0229815569065</v>
       </c>
       <c r="L25">
-        <v>1.005774316782801</v>
+        <v>1.007233287214117</v>
       </c>
       <c r="M25">
-        <v>1.004143889747911</v>
+        <v>1.005520691433326</v>
       </c>
       <c r="N25">
-        <v>1.006618333436359</v>
+        <v>1.009881389987639</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.026428963208912</v>
+        <v>1.027382707172526</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018306169849986</v>
       </c>
     </row>
   </sheetData>
